--- a/sales.xlsx
+++ b/sales.xlsx
@@ -16,9 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -48,9 +46,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -427,1623 +424,1823 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>제품명</t>
+          <t>Product Name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>가격</t>
+          <t>Price</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>수량</t>
+          <t>Quantity</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>판매날짜</t>
+          <t>Sale Date</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>제품1</t>
+          <t>Headphones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50852</v>
+        <v>1354.55</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>45056.67964546285</v>
+        <v>8</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>제품2</t>
+          <t>Smartwatch</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14567</v>
+        <v>1089.81</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>44902.67964546285</v>
+        <v>3</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>제품3</t>
+          <t>Smartphone</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82363</v>
+        <v>1124.83</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>45011.67964546285</v>
+        <v>10</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023-01-26</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>제품4</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39153</v>
+        <v>554.27</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>45127.67964546285</v>
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>제품5</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65999</v>
+        <v>1293.75</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>44894.67964546285</v>
+        <v>3</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>제품6</t>
+          <t>Headphones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31475</v>
+        <v>763.63</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>44834.67964546285</v>
+        <v>9</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>제품7</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22243</v>
+        <v>527.17</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>44805.67964546285</v>
+        <v>5</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2023-03-25</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>제품8</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10573</v>
+        <v>336.61</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>45000.67964546285</v>
+        <v>4</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>제품9</t>
+          <t>Headphones</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>68721</v>
+        <v>1236.37</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>45131.67964546285</v>
+        <v>2</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>제품10</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37049</v>
+        <v>318.75</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>44809.67964546285</v>
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>제품11</t>
+          <t>Smartphone</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21096</v>
+        <v>359.06</v>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>44806.67964546285</v>
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2023-04-28</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>제품12</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61420</v>
+        <v>813.1</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>45116.67964546285</v>
+        <v>10</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2023-05-22</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>제품13</t>
+          <t>Smartwatch</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>81345</v>
+        <v>1167.68</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>44964.67964546285</v>
+        <v>2</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2023-04-03</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>제품14</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>82067</v>
+        <v>338.09</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>44829.67964546285</v>
+        <v>8</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>제품15</t>
+          <t>Smartphone</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>14788</v>
+        <v>844.21</v>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>44931.67964546285</v>
+        <v>6</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2023-07-04</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>제품16</t>
+          <t>Smartphone</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>22365</v>
+        <v>485.84</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>44875.67964546285</v>
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2023-06-16</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>제품17</t>
+          <t>Smartwatch</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>85807</v>
+        <v>351.68</v>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>44867.67964546285</v>
+        <v>10</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>제품18</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99940</v>
+        <v>342.19</v>
       </c>
       <c r="C19" t="n">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>45052.67964546285</v>
+        <v>4</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2023-03-21</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>제품19</t>
+          <t>Headphones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>77378</v>
+        <v>810.08</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>44808.67964546285</v>
+        <v>7</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023-06-18</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>제품20</t>
+          <t>Smartwatch</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>90541</v>
+        <v>1246.6</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>44962.67964546285</v>
+        <v>5</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023-08-05</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>제품21</t>
+          <t>Headphones</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>37337</v>
+        <v>397.17</v>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>45031.67964546285</v>
+        <v>10</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023-05-02</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>제품22</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68205</v>
+        <v>589.11</v>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>44842.67964546285</v>
+        <v>9</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>제품23</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>95079</v>
+        <v>1394.77</v>
       </c>
       <c r="C24" t="n">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1" t="n">
-        <v>44963.67964546285</v>
+        <v>7</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023-05-25</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>제품24</t>
+          <t>Headphones</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95749</v>
+        <v>1209.4</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>45011.67964546285</v>
+        <v>9</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023-05-30</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>제품25</t>
+          <t>Headphones</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>81804</v>
+        <v>1362.01</v>
       </c>
       <c r="C26" t="n">
-        <v>7</v>
-      </c>
-      <c r="D26" s="1" t="n">
-        <v>44903.67964547439</v>
+        <v>4</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>제품26</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19503</v>
+        <v>1082.18</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <v>45033.67964547439</v>
+        <v>8</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023-07-15</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>제품27</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>28546</v>
+        <v>1336.34</v>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
-      </c>
-      <c r="D28" s="1" t="n">
-        <v>44888.67964547439</v>
+        <v>4</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023-05-01</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>제품28</t>
+          <t>Smartphone</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>14478</v>
+        <v>1329.93</v>
       </c>
       <c r="C29" t="n">
         <v>5</v>
       </c>
-      <c r="D29" s="1" t="n">
-        <v>45006.67964547439</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023-01-12</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>제품29</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>41879</v>
+        <v>600.6900000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1" t="n">
-        <v>44959.67964547439</v>
+        <v>10</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023-03-18</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>제품30</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>88614</v>
+        <v>868.34</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="n">
-        <v>44861.67964547439</v>
+        <v>2</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023-07-29</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>제품31</t>
+          <t>Smartwatch</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>11784</v>
+        <v>558.83</v>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
-      </c>
-      <c r="D32" s="1" t="n">
-        <v>44998.67964547439</v>
+        <v>9</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023-05-23</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>제품32</t>
+          <t>Headphones</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>44154</v>
+        <v>1160.29</v>
       </c>
       <c r="C33" t="n">
-        <v>8</v>
-      </c>
-      <c r="D33" s="1" t="n">
-        <v>44890.67964547439</v>
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>제품33</t>
+          <t>Headphones</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>38568</v>
+        <v>872.6799999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
-      </c>
-      <c r="D34" s="1" t="n">
-        <v>44981.67964547439</v>
+        <v>2</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023-01-29</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>제품34</t>
+          <t>Headphones</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>33732</v>
+        <v>678.78</v>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
-      </c>
-      <c r="D35" s="1" t="n">
-        <v>45085.67964547439</v>
+        <v>7</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023-05-10</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>제품35</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>99949</v>
+        <v>862.1</v>
       </c>
       <c r="C36" t="n">
-        <v>8</v>
-      </c>
-      <c r="D36" s="1" t="n">
-        <v>44825.67964547439</v>
+        <v>4</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>제품36</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>64851</v>
+        <v>997.87</v>
       </c>
       <c r="C37" t="n">
-        <v>7</v>
-      </c>
-      <c r="D37" s="1" t="n">
-        <v>45095.67964547439</v>
+        <v>1</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023-07-13</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>제품37</t>
+          <t>Headphones</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>88872</v>
+        <v>488.68</v>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
-      </c>
-      <c r="D38" s="1" t="n">
-        <v>45013.67964547439</v>
+        <v>6</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>제품38</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>46753</v>
+        <v>681.4299999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1" t="n">
-        <v>45146.67964547439</v>
+        <v>2</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>제품39</t>
+          <t>Headphones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93186</v>
+        <v>1385.2</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1" t="n">
-        <v>44932.67964547439</v>
+        <v>4</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023-01-28</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>제품40</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>78891</v>
+        <v>733.64</v>
       </c>
       <c r="C41" t="n">
-        <v>9</v>
-      </c>
-      <c r="D41" s="1" t="n">
-        <v>45145.67964547439</v>
+        <v>8</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023-01-05</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>제품41</t>
+          <t>Smartwatch</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>24438</v>
+        <v>703.11</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
-      </c>
-      <c r="D42" s="1" t="n">
-        <v>44905.67964547439</v>
+        <v>4</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-05-09</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>제품42</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54760</v>
+        <v>1404.34</v>
       </c>
       <c r="C43" t="n">
-        <v>7</v>
-      </c>
-      <c r="D43" s="1" t="n">
-        <v>44838.67964547439</v>
+        <v>1</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-05-03</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>제품43</t>
+          <t>Smartphone</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>56477</v>
+        <v>772.66</v>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
-      </c>
-      <c r="D44" s="1" t="n">
-        <v>44962.67964547439</v>
+        <v>3</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-07-14</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>제품44</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>15220</v>
+        <v>479.64</v>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
-      </c>
-      <c r="D45" s="1" t="n">
-        <v>44978.67964547439</v>
+        <v>9</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-04-14</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>제품45</t>
+          <t>Headphones</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>44688</v>
+        <v>575.95</v>
       </c>
       <c r="C46" t="n">
-        <v>8</v>
-      </c>
-      <c r="D46" s="1" t="n">
-        <v>44864.67964547439</v>
+        <v>6</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-03-19</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>제품46</t>
+          <t>Smartwatch</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>33248</v>
+        <v>618.14</v>
       </c>
       <c r="C47" t="n">
-        <v>7</v>
-      </c>
-      <c r="D47" s="1" t="n">
-        <v>45066.67964547439</v>
+        <v>2</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-04-05</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>제품47</t>
+          <t>Headphones</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>15859</v>
+        <v>652.39</v>
       </c>
       <c r="C48" t="n">
-        <v>6</v>
-      </c>
-      <c r="D48" s="1" t="n">
-        <v>44886.67964547439</v>
+        <v>10</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-02-28</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>제품48</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>23279</v>
+        <v>581.36</v>
       </c>
       <c r="C49" t="n">
-        <v>9</v>
-      </c>
-      <c r="D49" s="1" t="n">
-        <v>45117.67964547439</v>
+        <v>1</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>제품49</t>
+          <t>Smartphone</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>50528</v>
+        <v>474.05</v>
       </c>
       <c r="C50" t="n">
-        <v>9</v>
-      </c>
-      <c r="D50" s="1" t="n">
-        <v>44866.67964547439</v>
+        <v>2</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>제품50</t>
+          <t>Smartphone</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>93047</v>
+        <v>911.16</v>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
-      </c>
-      <c r="D51" s="1" t="n">
-        <v>45110.67964547439</v>
+        <v>3</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-01-21</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>제품51</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>74299</v>
+        <v>1084.53</v>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
-      </c>
-      <c r="D52" s="1" t="n">
-        <v>44989.67964547439</v>
+        <v>3</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>제품52</t>
+          <t>Headphones</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>18373</v>
+        <v>705.47</v>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
-      </c>
-      <c r="D53" s="1" t="n">
-        <v>45138.67964547439</v>
+        <v>6</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>제품53</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>26193</v>
+        <v>374.31</v>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
-      </c>
-      <c r="D54" s="1" t="n">
-        <v>44867.67964547439</v>
+        <v>2</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-03-14</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>제품54</t>
+          <t>Smartwatch</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>16077</v>
+        <v>942.66</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1" t="n">
-        <v>44803.67964547439</v>
+        <v>5</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-05-13</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>제품55</t>
+          <t>Smartwatch</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>86785</v>
+        <v>542.72</v>
       </c>
       <c r="C56" t="n">
-        <v>7</v>
-      </c>
-      <c r="D56" s="1" t="n">
-        <v>45085.67964547439</v>
+        <v>10</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>제품56</t>
+          <t>Smartwatch</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>20732</v>
+        <v>854.8200000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>10</v>
-      </c>
-      <c r="D57" s="1" t="n">
-        <v>44961.67964547439</v>
+        <v>1</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-05-16</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>제품57</t>
+          <t>Smartphone</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>92514</v>
+        <v>937.8099999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
-      </c>
-      <c r="D58" s="1" t="n">
-        <v>45150.67964547439</v>
+        <v>6</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-03-16</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>제품58</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>58309</v>
+        <v>1127.5</v>
       </c>
       <c r="C59" t="n">
-        <v>9</v>
-      </c>
-      <c r="D59" s="1" t="n">
-        <v>45092.67964547439</v>
+        <v>10</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-03-18</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>제품59</t>
+          <t>Smartphone</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>68447</v>
+        <v>1335.65</v>
       </c>
       <c r="C60" t="n">
         <v>6</v>
       </c>
-      <c r="D60" s="1" t="n">
-        <v>44955.67964547439</v>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>제품60</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>73740</v>
+        <v>628.51</v>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
-      </c>
-      <c r="D61" s="1" t="n">
-        <v>45112.67964548662</v>
+        <v>4</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-05-12</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>제품61</t>
+          <t>Smartwatch</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>68617</v>
+        <v>1420.86</v>
       </c>
       <c r="C62" t="n">
-        <v>6</v>
-      </c>
-      <c r="D62" s="1" t="n">
-        <v>44911.67964548662</v>
+        <v>7</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-07-05</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>제품62</t>
+          <t>Headphones</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>39699</v>
+        <v>841.3200000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
-      </c>
-      <c r="D63" s="1" t="n">
-        <v>44949.67964548662</v>
+        <v>8</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-07-05</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>제품63</t>
+          <t>Headphones</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>64408</v>
+        <v>528.72</v>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
-      </c>
-      <c r="D64" s="1" t="n">
-        <v>44919.67964548662</v>
+        <v>9</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>제품64</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>59864</v>
+        <v>329.91</v>
       </c>
       <c r="C65" t="n">
-        <v>8</v>
-      </c>
-      <c r="D65" s="1" t="n">
-        <v>44856.67964548662</v>
+        <v>4</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-01-21</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>제품65</t>
+          <t>Smartwatch</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>37024</v>
+        <v>1102.12</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
-      </c>
-      <c r="D66" s="1" t="n">
-        <v>45119.67964548662</v>
+        <v>4</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>제품66</t>
+          <t>Smartphone</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>80839</v>
+        <v>1293.4</v>
       </c>
       <c r="C67" t="n">
         <v>10</v>
       </c>
-      <c r="D67" s="1" t="n">
-        <v>45142.67964548662</v>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-07-29</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>제품67</t>
+          <t>Smartphone</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>43408</v>
+        <v>962.27</v>
       </c>
       <c r="C68" t="n">
-        <v>8</v>
-      </c>
-      <c r="D68" s="1" t="n">
-        <v>44853.67964548662</v>
+        <v>2</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>제품68</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>41050</v>
+        <v>916.54</v>
       </c>
       <c r="C69" t="n">
-        <v>7</v>
-      </c>
-      <c r="D69" s="1" t="n">
-        <v>44851.67964548662</v>
+        <v>10</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>제품69</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>36912</v>
+        <v>537.76</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
-      </c>
-      <c r="D70" s="1" t="n">
-        <v>44828.67964548662</v>
+        <v>10</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>제품70</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>76725</v>
+        <v>680.33</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
-      </c>
-      <c r="D71" s="1" t="n">
-        <v>45088.67964548662</v>
+        <v>9</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>제품71</t>
+          <t>Smartphone</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>31300</v>
+        <v>597.05</v>
       </c>
       <c r="C72" t="n">
-        <v>6</v>
-      </c>
-      <c r="D72" s="1" t="n">
-        <v>44989.67964548662</v>
+        <v>1</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-01-11</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>제품72</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>62666</v>
+        <v>351.06</v>
       </c>
       <c r="C73" t="n">
-        <v>8</v>
-      </c>
-      <c r="D73" s="1" t="n">
-        <v>45098.67964548662</v>
+        <v>2</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>제품73</t>
+          <t>Smartphone</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>72578</v>
+        <v>1088.44</v>
       </c>
       <c r="C74" t="n">
-        <v>10</v>
-      </c>
-      <c r="D74" s="1" t="n">
-        <v>45017.67964548662</v>
+        <v>7</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>제품74</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>62800</v>
+        <v>1450.14</v>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
-      </c>
-      <c r="D75" s="1" t="n">
-        <v>44831.67964548662</v>
+        <v>7</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>제품75</t>
+          <t>Smartphone</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>95853</v>
+        <v>513.0700000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>9</v>
-      </c>
-      <c r="D76" s="1" t="n">
-        <v>44903.67964548662</v>
+        <v>2</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-04-24</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>제품76</t>
+          <t>Smartphone</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>35086</v>
+        <v>754.15</v>
       </c>
       <c r="C77" t="n">
-        <v>7</v>
-      </c>
-      <c r="D77" s="1" t="n">
-        <v>44888.67964548662</v>
+        <v>10</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-05-11</t>
+        </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>제품77</t>
+          <t>Smartwatch</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>73442</v>
+        <v>426.07</v>
       </c>
       <c r="C78" t="n">
-        <v>6</v>
-      </c>
-      <c r="D78" s="1" t="n">
-        <v>44996.67964548662</v>
+        <v>8</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-05-30</t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>제품78</t>
+          <t>Headphones</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>88121</v>
+        <v>1283.58</v>
       </c>
       <c r="C79" t="n">
-        <v>9</v>
-      </c>
-      <c r="D79" s="1" t="n">
-        <v>44861.67964548662</v>
+        <v>3</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>제품79</t>
+          <t>Headphones</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>59215</v>
+        <v>1321.79</v>
       </c>
       <c r="C80" t="n">
-        <v>10</v>
-      </c>
-      <c r="D80" s="1" t="n">
-        <v>44834.67964548662</v>
+        <v>4</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>제품80</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>90524</v>
+        <v>509.97</v>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
-      </c>
-      <c r="D81" s="1" t="n">
-        <v>45160.67964548662</v>
+        <v>2</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>제품81</t>
+          <t>Headphones</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>91794</v>
+        <v>496.57</v>
       </c>
       <c r="C82" t="n">
-        <v>7</v>
-      </c>
-      <c r="D82" s="1" t="n">
-        <v>44863.67964548662</v>
+        <v>6</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-07-01</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>제품82</t>
+          <t>Smartphone</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>72623</v>
+        <v>769.2</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
-      </c>
-      <c r="D83" s="1" t="n">
-        <v>44798.67964548662</v>
+        <v>6</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-06-01</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>제품83</t>
+          <t>Smartphone</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>49000</v>
+        <v>817.6799999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
-      </c>
-      <c r="D84" s="1" t="n">
-        <v>44954.67964548662</v>
+        <v>4</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>제품84</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>43752</v>
+        <v>1250.23</v>
       </c>
       <c r="C85" t="n">
-        <v>6</v>
-      </c>
-      <c r="D85" s="1" t="n">
-        <v>45053.67964548662</v>
+        <v>4</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>제품85</t>
+          <t>Smartphone</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>96603</v>
+        <v>729.75</v>
       </c>
       <c r="C86" t="n">
-        <v>10</v>
-      </c>
-      <c r="D86" s="1" t="n">
-        <v>44888.67964548662</v>
+        <v>2</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-04-30</t>
+        </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>제품86</t>
+          <t>Smartphone</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>11207</v>
+        <v>1451.79</v>
       </c>
       <c r="C87" t="n">
-        <v>8</v>
-      </c>
-      <c r="D87" s="1" t="n">
-        <v>45121.67964548662</v>
+        <v>4</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-04-16</t>
+        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>제품87</t>
+          <t>Headphones</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>96302</v>
+        <v>902.6799999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
-      </c>
-      <c r="D88" s="1" t="n">
-        <v>45067.67964548662</v>
+        <v>2</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>제품88</t>
+          <t>Smartwatch</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>67194</v>
+        <v>1007.65</v>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
-      </c>
-      <c r="D89" s="1" t="n">
-        <v>44988.67964548662</v>
+        <v>9</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-01-02</t>
+        </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>제품89</t>
+          <t>Headphones</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>56878</v>
+        <v>629.9</v>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
-      </c>
-      <c r="D90" s="1" t="n">
-        <v>44808.67964548662</v>
+        <v>5</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-01-02</t>
+        </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>제품90</t>
+          <t>Headphones</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>29261</v>
+        <v>642.47</v>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
-      </c>
-      <c r="D91" s="1" t="n">
-        <v>44989.67964548662</v>
+        <v>4</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>제품91</t>
+          <t>Headphones</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>10532</v>
+        <v>985.83</v>
       </c>
       <c r="C92" t="n">
-        <v>10</v>
-      </c>
-      <c r="D92" s="1" t="n">
-        <v>45116.67964548662</v>
+        <v>7</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>제품92</t>
+          <t>Laptop</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>91444</v>
+        <v>1411.86</v>
       </c>
       <c r="C93" t="n">
-        <v>6</v>
-      </c>
-      <c r="D93" s="1" t="n">
-        <v>44899.67964548662</v>
+        <v>8</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>제품93</t>
+          <t>Smartphone</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>10502</v>
+        <v>1284.95</v>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
-      </c>
-      <c r="D94" s="1" t="n">
-        <v>45034.67964548662</v>
+        <v>5</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>제품94</t>
+          <t>Smartphone</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>81230</v>
+        <v>944.3</v>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
-      </c>
-      <c r="D95" s="1" t="n">
-        <v>44930.67964548662</v>
+        <v>8</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-06-22</t>
+        </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>제품95</t>
+          <t>Smartphone</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>53018</v>
+        <v>506.78</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
-      </c>
-      <c r="D96" s="1" t="n">
-        <v>44885.67964549816</v>
+        <v>3</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-03-06</t>
+        </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>제품96</t>
+          <t>Smartwatch</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>57799</v>
+        <v>310.83</v>
       </c>
       <c r="C97" t="n">
-        <v>6</v>
-      </c>
-      <c r="D97" s="1" t="n">
-        <v>44996.67964549816</v>
+        <v>9</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-05-13</t>
+        </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>제품97</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>64425</v>
+        <v>871.4299999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
-      </c>
-      <c r="D98" s="1" t="n">
-        <v>44918.67964549816</v>
+        <v>1</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-02-25</t>
+        </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>제품98</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>76731</v>
+        <v>735.91</v>
       </c>
       <c r="C99" t="n">
-        <v>10</v>
-      </c>
-      <c r="D99" s="1" t="n">
-        <v>44894.67964549816</v>
+        <v>4</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>제품99</t>
+          <t>Smartwatch</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>21601</v>
+        <v>1039.61</v>
       </c>
       <c r="C100" t="n">
-        <v>8</v>
-      </c>
-      <c r="D100" s="1" t="n">
-        <v>45159.67964549816</v>
+        <v>5</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>제품100</t>
+          <t>Smartphone</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>10274</v>
+        <v>651.09</v>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
-      </c>
-      <c r="D101" s="1" t="n">
-        <v>45060.67964549816</v>
+        <v>6</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
       </c>
     </row>
   </sheetData>
